--- a/data/raw/wisconsin_raw_2025.xlsx
+++ b/data/raw/wisconsin_raw_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2124184047743/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7B30B690-88C3-6247-A7B1-416C1306C766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57EE424F-744C-F84E-AC20-0F80C628953A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A7185-5C55-6441-A762-2B4615C949A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="-24720" windowWidth="26840" windowHeight="15680" xr2:uid="{1E96AC23-8882-BC45-9530-1E7148E70444}"/>
+    <workbookView xWindow="11560" yWindow="-21040" windowWidth="26840" windowHeight="15680" xr2:uid="{1E96AC23-8882-BC45-9530-1E7148E70444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -663,7 +663,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="O1" sqref="O1:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,7 +769,7 @@
         <v>598.9</v>
       </c>
       <c r="O2">
-        <v>11.8</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>455.27</v>
       </c>
       <c r="O3">
-        <v>15.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
         <v>443</v>
       </c>
       <c r="O4">
-        <v>11.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -910,7 +910,7 @@
         <v>390</v>
       </c>
       <c r="O5">
-        <v>11.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>568.29999999999995</v>
       </c>
       <c r="O6">
-        <v>11.6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>513.9</v>
       </c>
       <c r="O7">
-        <v>10.8</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>305.8</v>
       </c>
       <c r="O8">
-        <v>13.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
         <v>562.85</v>
       </c>
       <c r="O9">
-        <v>14.6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>443</v>
       </c>
       <c r="O10">
-        <v>11.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>509.9</v>
       </c>
       <c r="O11">
-        <v>11.5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>326.10000000000002</v>
       </c>
       <c r="O12">
-        <v>12.4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>582</v>
       </c>
       <c r="O13">
-        <v>12.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
         <v>460.9</v>
       </c>
       <c r="O14">
-        <v>12.3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>554.4</v>
       </c>
       <c r="O15">
-        <v>13.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1426,8 +1426,8 @@
       <c r="N16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="8" t="s">
-        <v>58</v>
+      <c r="O16">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>512.63</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>246.2</v>
       </c>
       <c r="O18">
-        <v>14.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1568,7 +1568,7 @@
         <v>544.48</v>
       </c>
       <c r="O19">
-        <v>14.8</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1615,7 +1615,7 @@
         <v>513.79999999999995</v>
       </c>
       <c r="O20">
-        <v>12.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>377.68</v>
       </c>
       <c r="O21">
-        <v>16.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1709,7 +1709,7 @@
         <v>669.6</v>
       </c>
       <c r="O22">
-        <v>12.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1756,7 +1756,7 @@
         <v>615.79999999999995</v>
       </c>
       <c r="O23">
-        <v>12.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>359.4</v>
       </c>
       <c r="O24">
-        <v>13</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>744.2</v>
       </c>
       <c r="O25">
-        <v>12.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1897,7 +1897,7 @@
         <v>370.2</v>
       </c>
       <c r="O26">
-        <v>11.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1944,7 +1944,7 @@
         <v>600</v>
       </c>
       <c r="O27">
-        <v>11.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>350.7</v>
       </c>
       <c r="O28">
-        <v>13.6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2038,7 +2038,7 @@
         <v>609.1</v>
       </c>
       <c r="O29">
-        <v>12.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,7 @@
         <v>492.3</v>
       </c>
       <c r="O30">
-        <v>11</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2132,7 +2132,7 @@
         <v>562.20000000000005</v>
       </c>
       <c r="O31">
-        <v>13.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2179,7 +2179,7 @@
         <v>403.1</v>
       </c>
       <c r="O32">
-        <v>11.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2226,7 +2226,7 @@
         <v>561.5</v>
       </c>
       <c r="O33">
-        <v>12.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
         <v>387.9</v>
       </c>
       <c r="O34">
-        <v>12</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
         <v>704.5</v>
       </c>
       <c r="O35">
-        <v>13.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2367,7 +2367,7 @@
         <v>593.88</v>
       </c>
       <c r="O36">
-        <v>17.600000000000001</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>412.4</v>
       </c>
       <c r="O37">
-        <v>13.3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
